--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dag1-Lama4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dag1-Lama4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.91686333333334</v>
+        <v>14.23612</v>
       </c>
       <c r="H2">
-        <v>56.75059</v>
+        <v>42.70836</v>
       </c>
       <c r="I2">
-        <v>0.1307094812119195</v>
+        <v>0.07600219901258977</v>
       </c>
       <c r="J2">
-        <v>0.1618499242031174</v>
+        <v>0.09845490883293605</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>80.12232466666667</v>
+        <v>70.24984733333334</v>
       </c>
       <c r="N2">
-        <v>240.366974</v>
+        <v>210.749542</v>
       </c>
       <c r="O2">
-        <v>0.3967606528644453</v>
+        <v>0.4112140935768181</v>
       </c>
       <c r="P2">
-        <v>0.4131107617534894</v>
+        <v>0.4134963606168713</v>
       </c>
       <c r="Q2">
-        <v>1515.663065668296</v>
+        <v>1000.085256619013</v>
       </c>
       <c r="R2">
-        <v>13640.96759101466</v>
+        <v>9000.76730957112</v>
       </c>
       <c r="S2">
-        <v>0.05186037910121413</v>
+        <v>0.03125317537680704</v>
       </c>
       <c r="T2">
-        <v>0.06686194547729438</v>
+        <v>0.04071074648728491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.91686333333334</v>
+        <v>14.23612</v>
       </c>
       <c r="H3">
-        <v>56.75059</v>
+        <v>42.70836</v>
       </c>
       <c r="I3">
-        <v>0.1307094812119195</v>
+        <v>0.07600219901258977</v>
       </c>
       <c r="J3">
-        <v>0.1618499242031174</v>
+        <v>0.09845490883293605</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>292.805126</v>
       </c>
       <c r="O3">
-        <v>0.4833174500662315</v>
+        <v>0.5713207883637346</v>
       </c>
       <c r="P3">
-        <v>0.5032344778246717</v>
+        <v>0.5744916587812298</v>
       </c>
       <c r="Q3">
-        <v>1846.318183947149</v>
+        <v>1389.469636783706</v>
       </c>
       <c r="R3">
-        <v>16616.86365552434</v>
+        <v>12505.22673105336</v>
       </c>
       <c r="S3">
-        <v>0.06317417315882493</v>
+        <v>0.04342163625725023</v>
       </c>
       <c r="T3">
-        <v>0.0814484620923185</v>
+        <v>0.05656152389058818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.91686333333334</v>
+        <v>14.23612</v>
       </c>
       <c r="H4">
-        <v>56.75059</v>
+        <v>42.70836</v>
       </c>
       <c r="I4">
-        <v>0.1307094812119195</v>
+        <v>0.07600219901258977</v>
       </c>
       <c r="J4">
-        <v>0.1618499242031174</v>
+        <v>0.09845490883293605</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1457666666666667</v>
+        <v>0.1349826666666667</v>
       </c>
       <c r="N4">
-        <v>0.4373</v>
+        <v>0.404948</v>
       </c>
       <c r="O4">
-        <v>0.0007218272569243308</v>
+        <v>0.0007901337444697523</v>
       </c>
       <c r="P4">
-        <v>0.0007515730347997015</v>
+        <v>0.0007945190421295474</v>
       </c>
       <c r="Q4">
-        <v>2.757448111888889</v>
+        <v>1.921629440586667</v>
       </c>
       <c r="R4">
-        <v>24.817033007</v>
+        <v>17.29466496528</v>
       </c>
       <c r="S4">
-        <v>9.434966627720221E-05</v>
+        <v>6.005190209375286E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001216420387154386</v>
+        <v>7.822429985889626E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.91686333333334</v>
+        <v>14.23612</v>
       </c>
       <c r="H5">
-        <v>56.75059</v>
+        <v>42.70836</v>
       </c>
       <c r="I5">
-        <v>0.1307094812119195</v>
+        <v>0.07600219901258977</v>
       </c>
       <c r="J5">
-        <v>0.1618499242031174</v>
+        <v>0.09845490883293605</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.9773035</v>
+        <v>2.8287425</v>
       </c>
       <c r="N5">
-        <v>47.954607</v>
+        <v>5.657484999999999</v>
       </c>
       <c r="O5">
-        <v>0.1187340810462874</v>
+        <v>0.01655831047689378</v>
       </c>
       <c r="P5">
-        <v>0.08241799569086898</v>
+        <v>0.01110014017370695</v>
       </c>
       <c r="Q5">
-        <v>453.5753734113551</v>
+        <v>40.2703176791</v>
       </c>
       <c r="R5">
-        <v>2721.45224046813</v>
+        <v>241.6219060746</v>
       </c>
       <c r="S5">
-        <v>0.01551967013573423</v>
+        <v>0.001258468008177132</v>
       </c>
       <c r="T5">
-        <v>0.01333934635554001</v>
+        <v>0.001092863288835129</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.91686333333334</v>
+        <v>14.23612</v>
       </c>
       <c r="H6">
-        <v>56.75059</v>
+        <v>42.70836</v>
       </c>
       <c r="I6">
-        <v>0.1307094812119195</v>
+        <v>0.07600219901258977</v>
       </c>
       <c r="J6">
-        <v>0.1618499242031174</v>
+        <v>0.09845490883293605</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.09410233333333333</v>
+        <v>0.019932</v>
       </c>
       <c r="N6">
-        <v>0.282307</v>
+        <v>0.059796</v>
       </c>
       <c r="O6">
-        <v>0.0004659887661114499</v>
+        <v>0.0001166738380836881</v>
       </c>
       <c r="P6">
-        <v>0.0004851916961701333</v>
+        <v>0.0001173213860623547</v>
       </c>
       <c r="Q6">
-        <v>1.780120979014445</v>
+        <v>0.28375434384</v>
       </c>
       <c r="R6">
-        <v>16.02108881113</v>
+        <v>2.55378909456</v>
       </c>
       <c r="S6">
-        <v>6.090914986901011E-05</v>
+        <v>8.867468261599135E-06</v>
       </c>
       <c r="T6">
-        <v>7.852823924911807E-05</v>
+        <v>1.155086636892283E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>92.437557</v>
       </c>
       <c r="I7">
-        <v>0.2129046609025076</v>
+        <v>0.1644984167819043</v>
       </c>
       <c r="J7">
-        <v>0.2636274194501123</v>
+        <v>0.2130948424892534</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>80.12232466666667</v>
+        <v>70.24984733333334</v>
       </c>
       <c r="N7">
-        <v>240.366974</v>
+        <v>210.749542</v>
       </c>
       <c r="O7">
-        <v>0.3967606528644453</v>
+        <v>0.4112140935768181</v>
       </c>
       <c r="P7">
-        <v>0.4131107617534894</v>
+        <v>0.4134963606168713</v>
       </c>
       <c r="Q7">
-        <v>2468.770651115835</v>
+        <v>2164.574755705432</v>
       </c>
       <c r="R7">
-        <v>22218.93586004252</v>
+        <v>19481.17280134889</v>
       </c>
       <c r="S7">
-        <v>0.08447219225756225</v>
+        <v>0.06764406735179242</v>
       </c>
       <c r="T7">
-        <v>0.1089073240681425</v>
+        <v>0.0881139418355317</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>92.437557</v>
       </c>
       <c r="I8">
-        <v>0.2129046609025076</v>
+        <v>0.1644984167819043</v>
       </c>
       <c r="J8">
-        <v>0.2636274194501123</v>
+        <v>0.2130948424892534</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>292.805126</v>
       </c>
       <c r="O8">
-        <v>0.4833174500662315</v>
+        <v>0.5713207883637346</v>
       </c>
       <c r="P8">
-        <v>0.5032344778246717</v>
+        <v>0.5744916587812298</v>
       </c>
       <c r="Q8">
         <v>3007.354502724131</v>
@@ -948,10 +948,10 @@
         <v>27066.19052451718</v>
       </c>
       <c r="S8">
-        <v>0.1029005378146157</v>
+        <v>0.09398136516042375</v>
       </c>
       <c r="T8">
-        <v>0.1326664067672429</v>
+        <v>0.122421209539376</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>92.437557</v>
       </c>
       <c r="I9">
-        <v>0.2129046609025076</v>
+        <v>0.1644984167819043</v>
       </c>
       <c r="J9">
-        <v>0.2636274194501123</v>
+        <v>0.2130948424892534</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1457666666666667</v>
+        <v>0.1349826666666667</v>
       </c>
       <c r="N9">
-        <v>0.4373</v>
+        <v>0.404948</v>
       </c>
       <c r="O9">
-        <v>0.0007218272569243308</v>
+        <v>0.0007901337444697523</v>
       </c>
       <c r="P9">
-        <v>0.0007515730347997015</v>
+        <v>0.0007945190421295474</v>
       </c>
       <c r="Q9">
-        <v>4.491438186233333</v>
+        <v>4.159155981337333</v>
       </c>
       <c r="R9">
-        <v>40.4229436761</v>
+        <v>37.43240383203599</v>
       </c>
       <c r="S9">
-        <v>0.0001536803873656619</v>
+        <v>0.000129975750011232</v>
       </c>
       <c r="T9">
-        <v>0.0001981352596925347</v>
+        <v>0.0001693079101373084</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>92.437557</v>
       </c>
       <c r="I10">
-        <v>0.2129046609025076</v>
+        <v>0.1644984167819043</v>
       </c>
       <c r="J10">
-        <v>0.2636274194501123</v>
+        <v>0.2130948424892534</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.9773035</v>
+        <v>2.8287425</v>
       </c>
       <c r="N10">
-        <v>47.954607</v>
+        <v>5.657484999999999</v>
       </c>
       <c r="O10">
-        <v>0.1187340810462874</v>
+        <v>0.01655831047689378</v>
       </c>
       <c r="P10">
-        <v>0.08241799569086898</v>
+        <v>0.01110014017370695</v>
       </c>
       <c r="Q10">
-        <v>738.8011196625165</v>
+        <v>87.16068202735748</v>
       </c>
       <c r="R10">
-        <v>4432.806717975099</v>
+        <v>522.964092164145</v>
       </c>
       <c r="S10">
-        <v>0.02527903926273067</v>
+        <v>0.002723815858032246</v>
       </c>
       <c r="T10">
-        <v>0.02172764352023426</v>
+        <v>0.002365382621924716</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>92.437557</v>
       </c>
       <c r="I11">
-        <v>0.2129046609025076</v>
+        <v>0.1644984167819043</v>
       </c>
       <c r="J11">
-        <v>0.2636274194501123</v>
+        <v>0.2130948424892534</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.09410233333333333</v>
+        <v>0.019932</v>
       </c>
       <c r="N11">
-        <v>0.282307</v>
+        <v>0.059796</v>
       </c>
       <c r="O11">
-        <v>0.0004659887661114499</v>
+        <v>0.0001166738380836881</v>
       </c>
       <c r="P11">
-        <v>0.0004851916961701333</v>
+        <v>0.0001173213860623547</v>
       </c>
       <c r="Q11">
-        <v>2.899529933777667</v>
+        <v>0.614155128708</v>
       </c>
       <c r="R11">
-        <v>26.095769403999</v>
+        <v>5.527396158372</v>
       </c>
       <c r="S11">
-        <v>9.921118023333615E-05</v>
+        <v>1.919266164463494E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001279098347999552</v>
+        <v>2.500058228357836E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.973992333333332</v>
+        <v>5.407681</v>
       </c>
       <c r="H12">
-        <v>17.921977</v>
+        <v>16.223043</v>
       </c>
       <c r="I12">
-        <v>0.04127837818006743</v>
+        <v>0.02886992014387351</v>
       </c>
       <c r="J12">
-        <v>0.05111260727016254</v>
+        <v>0.03739872520410058</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>80.12232466666667</v>
+        <v>70.24984733333334</v>
       </c>
       <c r="N12">
-        <v>240.366974</v>
+        <v>210.749542</v>
       </c>
       <c r="O12">
-        <v>0.3967606528644453</v>
+        <v>0.4112140935768181</v>
       </c>
       <c r="P12">
-        <v>0.4131107617534894</v>
+        <v>0.4134963606168713</v>
       </c>
       <c r="Q12">
-        <v>478.6501532875108</v>
+        <v>379.8887646773674</v>
       </c>
       <c r="R12">
-        <v>4307.851379587598</v>
+        <v>3418.998882096306</v>
       </c>
       <c r="S12">
-        <v>0.01637763627590903</v>
+        <v>0.01187171804359807</v>
       </c>
       <c r="T12">
-        <v>0.02111516812458379</v>
+        <v>0.01546423676360605</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.973992333333332</v>
+        <v>5.407681</v>
       </c>
       <c r="H13">
-        <v>17.921977</v>
+        <v>16.223043</v>
       </c>
       <c r="I13">
-        <v>0.04127837818006743</v>
+        <v>0.02886992014387351</v>
       </c>
       <c r="J13">
-        <v>0.05111260727016254</v>
+        <v>0.03739872520410058</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>292.805126</v>
       </c>
       <c r="O13">
-        <v>0.4833174500662315</v>
+        <v>0.5713207883637346</v>
       </c>
       <c r="P13">
-        <v>0.5032344778246717</v>
+        <v>0.5744916587812298</v>
       </c>
       <c r="Q13">
-        <v>583.0718592949</v>
+        <v>527.7989055242687</v>
       </c>
       <c r="R13">
-        <v>5247.646733654101</v>
+        <v>4750.190149718418</v>
       </c>
       <c r="S13">
-        <v>0.01995056048485976</v>
+        <v>0.01649398553659587</v>
       </c>
       <c r="T13">
-        <v>0.02572162622985777</v>
+        <v>0.02148525567880713</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.973992333333332</v>
+        <v>5.407681</v>
       </c>
       <c r="H14">
-        <v>17.921977</v>
+        <v>16.223043</v>
       </c>
       <c r="I14">
-        <v>0.04127837818006743</v>
+        <v>0.02886992014387351</v>
       </c>
       <c r="J14">
-        <v>0.05111260727016254</v>
+        <v>0.03739872520410058</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1457666666666667</v>
+        <v>0.1349826666666667</v>
       </c>
       <c r="N14">
-        <v>0.4373</v>
+        <v>0.404948</v>
       </c>
       <c r="O14">
-        <v>0.0007218272569243308</v>
+        <v>0.0007901337444697523</v>
       </c>
       <c r="P14">
-        <v>0.0007515730347997015</v>
+        <v>0.0007945190421295474</v>
       </c>
       <c r="Q14">
-        <v>0.8708089491222222</v>
+        <v>0.7299432018626667</v>
       </c>
       <c r="R14">
-        <v>7.837280542099999</v>
+        <v>6.569488816764</v>
       </c>
       <c r="S14">
-        <v>2.979585849200323E-05</v>
+        <v>2.28110981058215E-05</v>
       </c>
       <c r="T14">
-        <v>3.841485736256135E-05</v>
+        <v>2.971399932602816E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.973992333333332</v>
+        <v>5.407681</v>
       </c>
       <c r="H15">
-        <v>17.921977</v>
+        <v>16.223043</v>
       </c>
       <c r="I15">
-        <v>0.04127837818006743</v>
+        <v>0.02886992014387351</v>
       </c>
       <c r="J15">
-        <v>0.05111260727016254</v>
+        <v>0.03739872520410058</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.9773035</v>
+        <v>2.8287425</v>
       </c>
       <c r="N15">
-        <v>47.954607</v>
+        <v>5.657484999999999</v>
       </c>
       <c r="O15">
-        <v>0.1187340810462874</v>
+        <v>0.01655831047689378</v>
       </c>
       <c r="P15">
-        <v>0.08241799569086898</v>
+        <v>0.01110014017370695</v>
       </c>
       <c r="Q15">
-        <v>143.2402272830065</v>
+        <v>15.2969370711425</v>
       </c>
       <c r="R15">
-        <v>859.4413636980389</v>
+        <v>91.78162242685499</v>
       </c>
       <c r="S15">
-        <v>0.004901150300291427</v>
+        <v>0.0004780371011853876</v>
       </c>
       <c r="T15">
-        <v>0.004212598645741335</v>
+        <v>0.0004151310920834636</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.973992333333332</v>
+        <v>5.407681</v>
       </c>
       <c r="H16">
-        <v>17.921977</v>
+        <v>16.223043</v>
       </c>
       <c r="I16">
-        <v>0.04127837818006743</v>
+        <v>0.02886992014387351</v>
       </c>
       <c r="J16">
-        <v>0.05111260727016254</v>
+        <v>0.03739872520410058</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.09410233333333333</v>
+        <v>0.019932</v>
       </c>
       <c r="N16">
-        <v>0.282307</v>
+        <v>0.059796</v>
       </c>
       <c r="O16">
-        <v>0.0004659887661114499</v>
+        <v>0.0001166738380836881</v>
       </c>
       <c r="P16">
-        <v>0.0004851916961701333</v>
+        <v>0.0001173213860623547</v>
       </c>
       <c r="Q16">
-        <v>0.562166617882111</v>
+        <v>0.107785897692</v>
       </c>
       <c r="R16">
-        <v>5.059499560938999</v>
+        <v>0.970073079228</v>
       </c>
       <c r="S16">
-        <v>1.923526051521142E-05</v>
+        <v>3.368364388355302E-06</v>
       </c>
       <c r="T16">
-        <v>2.479941261708805E-05</v>
+        <v>4.3876702779102E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>83.5363655</v>
+        <v>128.149857</v>
       </c>
       <c r="H17">
-        <v>167.072731</v>
+        <v>256.299714</v>
       </c>
       <c r="I17">
-        <v>0.5772095936007515</v>
+        <v>0.6841520677789258</v>
       </c>
       <c r="J17">
-        <v>0.4764833079049545</v>
+        <v>0.5908436890523912</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.12232466666667</v>
+        <v>70.24984733333334</v>
       </c>
       <c r="N17">
-        <v>240.366974</v>
+        <v>210.749542</v>
       </c>
       <c r="O17">
-        <v>0.3967606528644453</v>
+        <v>0.4112140935768181</v>
       </c>
       <c r="P17">
-        <v>0.4131107617534894</v>
+        <v>0.4134963606168713</v>
       </c>
       <c r="Q17">
-        <v>6693.127798064333</v>
+        <v>9002.507890038498</v>
       </c>
       <c r="R17">
-        <v>40158.766788386</v>
+        <v>54015.04734023099</v>
       </c>
       <c r="S17">
-        <v>0.2290140551966554</v>
+        <v>0.2813329724204168</v>
       </c>
       <c r="T17">
-        <v>0.1968403822914382</v>
+        <v>0.2443117151166101</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>83.5363655</v>
+        <v>128.149857</v>
       </c>
       <c r="H18">
-        <v>167.072731</v>
+        <v>256.299714</v>
       </c>
       <c r="I18">
-        <v>0.5772095936007515</v>
+        <v>0.6841520677789258</v>
       </c>
       <c r="J18">
-        <v>0.4764833079049545</v>
+        <v>0.5908436890523912</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>292.805126</v>
       </c>
       <c r="O18">
-        <v>0.4833174500662315</v>
+        <v>0.5713207883637346</v>
       </c>
       <c r="P18">
-        <v>0.5032344778246717</v>
+        <v>0.5744916587812298</v>
       </c>
       <c r="Q18">
-        <v>8153.292008603184</v>
+        <v>12507.64500858899</v>
       </c>
       <c r="R18">
-        <v>48919.7520516191</v>
+        <v>75045.87005153396</v>
       </c>
       <c r="S18">
-        <v>0.278975468932881</v>
+        <v>0.390870298724135</v>
       </c>
       <c r="T18">
-        <v>0.239782828645722</v>
+        <v>0.3394347710041293</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>83.5363655</v>
+        <v>128.149857</v>
       </c>
       <c r="H19">
-        <v>167.072731</v>
+        <v>256.299714</v>
       </c>
       <c r="I19">
-        <v>0.5772095936007515</v>
+        <v>0.6841520677789258</v>
       </c>
       <c r="J19">
-        <v>0.4764833079049545</v>
+        <v>0.5908436890523912</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1457666666666667</v>
+        <v>0.1349826666666667</v>
       </c>
       <c r="N19">
-        <v>0.4373</v>
+        <v>0.404948</v>
       </c>
       <c r="O19">
-        <v>0.0007218272569243308</v>
+        <v>0.0007901337444697523</v>
       </c>
       <c r="P19">
-        <v>0.0007515730347997015</v>
+        <v>0.0007945190421295474</v>
       </c>
       <c r="Q19">
-        <v>12.17681754438333</v>
+        <v>17.298009430812</v>
       </c>
       <c r="R19">
-        <v>73.06090526630001</v>
+        <v>103.788056584872</v>
       </c>
       <c r="S19">
-        <v>0.0004166456176192382</v>
+        <v>0.0005405716351008864</v>
       </c>
       <c r="T19">
-        <v>0.0003581120057535272</v>
+        <v>0.000469436561874194</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>83.5363655</v>
+        <v>128.149857</v>
       </c>
       <c r="H20">
-        <v>167.072731</v>
+        <v>256.299714</v>
       </c>
       <c r="I20">
-        <v>0.5772095936007515</v>
+        <v>0.6841520677789258</v>
       </c>
       <c r="J20">
-        <v>0.4764833079049545</v>
+        <v>0.5908436890523912</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.9773035</v>
+        <v>2.8287425</v>
       </c>
       <c r="N20">
-        <v>47.954607</v>
+        <v>5.657484999999999</v>
       </c>
       <c r="O20">
-        <v>0.1187340810462874</v>
+        <v>0.01655831047689378</v>
       </c>
       <c r="P20">
-        <v>0.08241799569086898</v>
+        <v>0.01110014017370695</v>
       </c>
       <c r="Q20">
-        <v>2002.976788880429</v>
+        <v>362.5029468648224</v>
       </c>
       <c r="R20">
-        <v>8011.907155521718</v>
+        <v>1450.01178745929</v>
       </c>
       <c r="S20">
-        <v>0.06853445066728624</v>
+        <v>0.01132840235169233</v>
       </c>
       <c r="T20">
-        <v>0.03927079921768153</v>
+        <v>0.006558447769231665</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>83.5363655</v>
+        <v>128.149857</v>
       </c>
       <c r="H21">
-        <v>167.072731</v>
+        <v>256.299714</v>
       </c>
       <c r="I21">
-        <v>0.5772095936007515</v>
+        <v>0.6841520677789258</v>
       </c>
       <c r="J21">
-        <v>0.4764833079049545</v>
+        <v>0.5908436890523912</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.09410233333333333</v>
+        <v>0.019932</v>
       </c>
       <c r="N21">
-        <v>0.282307</v>
+        <v>0.059796</v>
       </c>
       <c r="O21">
-        <v>0.0004659887661114499</v>
+        <v>0.0001166738380836881</v>
       </c>
       <c r="P21">
-        <v>0.0004851916961701333</v>
+        <v>0.0001173213860623547</v>
       </c>
       <c r="Q21">
-        <v>7.860966911736167</v>
+        <v>2.554282949724</v>
       </c>
       <c r="R21">
-        <v>47.16580147041699</v>
+        <v>15.325697698344</v>
       </c>
       <c r="S21">
-        <v>0.0002689731863097057</v>
+        <v>7.982264758065877E-05</v>
       </c>
       <c r="T21">
-        <v>0.0002311857443591608</v>
+        <v>6.931860054582145E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.484752333333333</v>
+        <v>8.705771666666665</v>
       </c>
       <c r="H22">
-        <v>16.454257</v>
+        <v>26.117315</v>
       </c>
       <c r="I22">
-        <v>0.03789788610475406</v>
+        <v>0.04647739628270661</v>
       </c>
       <c r="J22">
-        <v>0.04692674117165327</v>
+        <v>0.06020783442131875</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>80.12232466666667</v>
+        <v>70.24984733333334</v>
       </c>
       <c r="N22">
-        <v>240.366974</v>
+        <v>210.749542</v>
       </c>
       <c r="O22">
-        <v>0.3967606528644453</v>
+        <v>0.4112140935768181</v>
       </c>
       <c r="P22">
-        <v>0.4131107617534894</v>
+        <v>0.4134963606168713</v>
       </c>
       <c r="Q22">
-        <v>439.4511071675909</v>
+        <v>611.5791305021921</v>
       </c>
       <c r="R22">
-        <v>3955.059964508318</v>
+        <v>5504.212174519729</v>
       </c>
       <c r="S22">
-        <v>0.01503639003310461</v>
+        <v>0.01911216038420378</v>
       </c>
       <c r="T22">
-        <v>0.01938594179203052</v>
+        <v>0.02489572041383849</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.484752333333333</v>
+        <v>8.705771666666665</v>
       </c>
       <c r="H23">
-        <v>16.454257</v>
+        <v>26.117315</v>
       </c>
       <c r="I23">
-        <v>0.03789788610475406</v>
+        <v>0.04647739628270661</v>
       </c>
       <c r="J23">
-        <v>0.04692674117165327</v>
+        <v>0.06020783442131875</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>292.805126</v>
       </c>
       <c r="O23">
-        <v>0.4833174500662315</v>
+        <v>0.5713207883637346</v>
       </c>
       <c r="P23">
-        <v>0.5032344778246717</v>
+        <v>0.5744916587812298</v>
       </c>
       <c r="Q23">
-        <v>535.3211993468201</v>
+        <v>849.6981899285208</v>
       </c>
       <c r="R23">
-        <v>4817.890794121381</v>
+        <v>7647.283709356689</v>
       </c>
       <c r="S23">
-        <v>0.0183167096750502</v>
+        <v>0.02655350268532965</v>
       </c>
       <c r="T23">
-        <v>0.02361515408953046</v>
+        <v>0.03458889866832903</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.484752333333333</v>
+        <v>8.705771666666665</v>
       </c>
       <c r="H24">
-        <v>16.454257</v>
+        <v>26.117315</v>
       </c>
       <c r="I24">
-        <v>0.03789788610475406</v>
+        <v>0.04647739628270661</v>
       </c>
       <c r="J24">
-        <v>0.04692674117165327</v>
+        <v>0.06020783442131875</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.1457666666666667</v>
+        <v>0.1349826666666667</v>
       </c>
       <c r="N24">
-        <v>0.4373</v>
+        <v>0.404948</v>
       </c>
       <c r="O24">
-        <v>0.0007218272569243308</v>
+        <v>0.0007901337444697523</v>
       </c>
       <c r="P24">
-        <v>0.0007515730347997015</v>
+        <v>0.0007945190421295474</v>
       </c>
       <c r="Q24">
-        <v>0.7994940651222222</v>
+        <v>1.175128274957778</v>
       </c>
       <c r="R24">
-        <v>7.195446586099999</v>
+        <v>10.57615447462</v>
       </c>
       <c r="S24">
-        <v>2.735572717022534E-05</v>
+        <v>3.672335915805952E-05</v>
       </c>
       <c r="T24">
-        <v>3.526887327563955E-05</v>
+        <v>4.783627093312056E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.484752333333333</v>
+        <v>8.705771666666665</v>
       </c>
       <c r="H25">
-        <v>16.454257</v>
+        <v>26.117315</v>
       </c>
       <c r="I25">
-        <v>0.03789788610475406</v>
+        <v>0.04647739628270661</v>
       </c>
       <c r="J25">
-        <v>0.04692674117165327</v>
+        <v>0.06020783442131875</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.9773035</v>
+        <v>2.8287425</v>
       </c>
       <c r="N25">
-        <v>47.954607</v>
+        <v>5.657484999999999</v>
       </c>
       <c r="O25">
-        <v>0.1187340810462874</v>
+        <v>0.01655831047689378</v>
       </c>
       <c r="P25">
-        <v>0.08241799569086898</v>
+        <v>0.01110014017370695</v>
       </c>
       <c r="Q25">
-        <v>131.5095713186665</v>
+        <v>24.62638630879583</v>
       </c>
       <c r="R25">
-        <v>789.057427911999</v>
+        <v>147.758317852775</v>
       </c>
       <c r="S25">
-        <v>0.004499770680244837</v>
+        <v>0.0007695871578066851</v>
       </c>
       <c r="T25">
-        <v>0.003867607951671843</v>
+        <v>0.0006683154016319764</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.484752333333333</v>
+        <v>8.705771666666665</v>
       </c>
       <c r="H26">
-        <v>16.454257</v>
+        <v>26.117315</v>
       </c>
       <c r="I26">
-        <v>0.03789788610475406</v>
+        <v>0.04647739628270661</v>
       </c>
       <c r="J26">
-        <v>0.04692674117165327</v>
+        <v>0.06020783442131875</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.09410233333333333</v>
+        <v>0.019932</v>
       </c>
       <c r="N26">
-        <v>0.282307</v>
+        <v>0.059796</v>
       </c>
       <c r="O26">
-        <v>0.0004659887661114499</v>
+        <v>0.0001166738380836881</v>
       </c>
       <c r="P26">
-        <v>0.0004851916961701333</v>
+        <v>0.0001173213860623547</v>
       </c>
       <c r="Q26">
-        <v>0.516127992322111</v>
+        <v>0.17352344086</v>
       </c>
       <c r="R26">
-        <v>4.645151930898999</v>
+        <v>1.56171096774</v>
       </c>
       <c r="S26">
-        <v>1.765998918418661E-05</v>
+        <v>5.422696208439916E-06</v>
       </c>
       <c r="T26">
-        <v>2.276846514481128E-05</v>
+        <v>7.063666586121866E-06</v>
       </c>
     </row>
   </sheetData>
